--- a/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
+++ b/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="-15855" windowWidth="23490" windowHeight="13560" tabRatio="736"/>
+    <workbookView xWindow="2865" yWindow="-15855" windowWidth="23490" windowHeight="13560" tabRatio="736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CSU01" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="209">
   <si>
     <t>Nome do Caso de Uso</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Serão exibidos os dados das categorias de evento</t>
   </si>
   <si>
-    <t>1 Seleciona a opção "Listar"</t>
-  </si>
-  <si>
     <t>Permite exibir eventos</t>
   </si>
   <si>
@@ -674,9 +671,6 @@
   </si>
   <si>
     <t>9 Exibe os ingressos</t>
-  </si>
-  <si>
-    <t>2 Exibe os dados solicitados</t>
   </si>
   <si>
     <t>5 Exclui a organizadora</t>
@@ -1114,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1218,16 +1212,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1251,17 +1236,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1600,10 +1603,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1640,14 +1643,14 @@
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1660,14 +1663,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="38"/>
+      <c r="A16" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1680,7 +1683,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1744,14 +1747,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1763,39 +1766,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1808,14 +1811,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1828,14 +1831,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -1848,7 +1851,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1913,14 +1916,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1932,20 +1935,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="40"/>
+      <c r="A9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2007,58 +2010,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2071,14 +2074,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2091,14 +2094,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2111,7 +2114,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2176,14 +2179,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -2195,13 +2198,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="28"/>
     </row>
@@ -2214,7 +2217,7 @@
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2276,14 +2279,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2295,39 +2298,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2340,14 +2343,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2360,14 +2363,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2380,7 +2383,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2445,14 +2448,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2464,45 +2467,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2515,14 +2518,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -2535,14 +2538,14 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -2555,7 +2558,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2620,14 +2623,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2639,45 +2642,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2690,7 +2693,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2753,14 +2756,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2772,39 +2775,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2817,14 +2820,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2837,14 +2840,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2857,7 +2860,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2922,14 +2925,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2941,45 +2944,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2992,14 +2995,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -3012,14 +3015,14 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -3032,7 +3035,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3081,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3097,14 +3100,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3116,45 +3119,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -3167,7 +3170,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3234,10 +3237,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3249,14 +3252,14 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3310,14 +3313,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -3329,39 +3332,39 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -3374,14 +3377,14 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -3394,14 +3397,14 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="48"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -3414,7 +3417,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3479,58 +3482,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -3543,14 +3546,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -3563,14 +3566,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -3583,7 +3586,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3632,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3648,64 +3651,64 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49" t="s">
-        <v>207</v>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="47"/>
+      <c r="A14" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -3718,14 +3721,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="38"/>
+      <c r="A17" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -3738,7 +3741,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3786,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3802,14 +3805,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3821,39 +3824,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -3866,14 +3869,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -3886,7 +3889,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3934,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3950,14 +3953,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3969,39 +3972,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -4014,14 +4017,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -4034,14 +4037,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="38"/>
+      <c r="A19" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -4054,7 +4057,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4103,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4119,14 +4122,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4138,39 +4141,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="38"/>
+      <c r="A13" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -4183,7 +4186,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4230,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4246,14 +4249,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4265,45 +4268,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -4316,14 +4319,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -4336,14 +4339,14 @@
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="38"/>
+      <c r="A20" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -4356,7 +4359,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4405,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4421,14 +4424,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4440,26 +4443,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="41"/>
+        <v>173</v>
+      </c>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4476,7 +4479,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4505,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4521,14 +4524,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4540,51 +4543,51 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -4597,14 +4600,14 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="48"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -4617,14 +4620,14 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="38"/>
+      <c r="A21" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="48"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -4637,7 +4640,7 @@
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4686,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4702,14 +4705,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4721,45 +4724,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -4772,7 +4775,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4819,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4835,14 +4838,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -4854,26 +4857,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="45" t="s">
-        <v>135</v>
+      <c r="B9" s="42" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4927,14 +4930,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -4946,39 +4949,39 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -4991,14 +4994,14 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -5011,14 +5014,14 @@
     <row r="17" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="48"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -5031,7 +5034,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5096,58 +5099,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -5160,14 +5163,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -5180,14 +5183,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -5200,7 +5203,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5249,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5265,57 +5268,57 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49" t="s">
-        <v>195</v>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5361,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5377,82 +5380,82 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="45" t="s">
-        <v>203</v>
+      <c r="B14" s="42" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="45" t="s">
-        <v>204</v>
+      <c r="B15" s="42" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -5465,14 +5468,14 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -5485,7 +5488,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5501,10 +5504,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5533,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5549,34 +5552,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
-        <v>206</v>
-      </c>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5621,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5637,14 +5646,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5656,20 +5665,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="40"/>
+      <c r="A9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5715,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5731,14 +5740,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5750,39 +5759,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="44"/>
+        <v>139</v>
+      </c>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -5795,14 +5804,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -5815,7 +5824,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5863,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5879,14 +5888,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -5898,20 +5907,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5957,7 +5966,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5973,14 +5982,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5992,20 +6001,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="40"/>
+      <c r="A9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6051,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -6067,14 +6076,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -6086,20 +6095,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
+++ b/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
@@ -322,36 +322,18 @@
     <t>4 Exclui o administrador selecionado</t>
   </si>
   <si>
-    <t>Permite cadastrar uma categora de ingressos</t>
-  </si>
-  <si>
     <t>Uma nova categoria de ingressos será criada</t>
   </si>
   <si>
-    <t>Permite editar uma categora de ingressos</t>
-  </si>
-  <si>
     <t>Uma categoria de ingressos será alterada</t>
   </si>
   <si>
-    <t>Permite excluir uma categora de ingressos</t>
-  </si>
-  <si>
     <t>Uma categoria de ingressos será excluída</t>
   </si>
   <si>
-    <t>Permite cadastrar uma categora de evento</t>
-  </si>
-  <si>
-    <t>Permite editar uma categora de eventos</t>
-  </si>
-  <si>
     <t>Uma categoria de eventos será alterada</t>
   </si>
   <si>
-    <t>Permite excluir uma categora de eventos</t>
-  </si>
-  <si>
     <t>Uma categoria de eventos será excluída</t>
   </si>
   <si>
@@ -683,6 +665,24 @@
   </si>
   <si>
     <t>1 Clica em "Cadastre-se"</t>
+  </si>
+  <si>
+    <t>Permite cadastrar uma categoria de ingressos</t>
+  </si>
+  <si>
+    <t>Permite editar uma categoria de ingressos</t>
+  </si>
+  <si>
+    <t>Permite excluir uma categoria de ingressos</t>
+  </si>
+  <si>
+    <t>Permite cadastrar uma categoria de evento</t>
+  </si>
+  <si>
+    <t>Permite editar uma categoria de eventos</t>
+  </si>
+  <si>
+    <t>Permite excluir uma categoria de eventos</t>
   </si>
 </sst>
 </file>
@@ -1242,6 +1242,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1258,12 +1264,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,10 +1603,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1643,14 +1643,14 @@
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1663,14 +1663,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="48"/>
+      <c r="A16" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1683,7 +1683,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1766,39 +1766,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1811,14 +1811,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1831,14 +1831,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -1851,7 +1851,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1920,10 +1920,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1935,20 +1935,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2014,10 +2014,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
@@ -2029,39 +2029,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2074,14 +2074,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2094,14 +2094,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2114,7 +2114,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2183,10 +2183,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -2198,13 +2198,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B9" s="28"/>
     </row>
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2279,14 +2279,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2298,39 +2298,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2343,14 +2343,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2363,14 +2363,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2383,7 +2383,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2448,14 +2448,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2467,45 +2467,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2518,14 +2518,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="50"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -2538,14 +2538,14 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="50"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -2558,7 +2558,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2623,14 +2623,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2642,45 +2642,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2693,7 +2693,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2756,14 +2756,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2775,39 +2775,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2820,14 +2820,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2840,14 +2840,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2860,7 +2860,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2925,14 +2925,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2944,45 +2944,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2995,14 +2995,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="50"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -3015,14 +3015,14 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="50"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -3035,7 +3035,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3100,14 +3100,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3119,45 +3119,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -3170,7 +3170,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3237,10 +3237,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3252,14 +3252,14 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3313,14 +3313,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -3332,39 +3332,39 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -3377,14 +3377,14 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="50"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -3397,14 +3397,14 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="50"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -3417,7 +3417,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3482,14 +3482,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
@@ -3501,39 +3501,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -3546,14 +3546,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -3566,14 +3566,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -3586,7 +3586,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3651,14 +3651,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
@@ -3670,45 +3670,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="44" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="50"/>
+      <c r="A14" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="52"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -3721,14 +3721,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="48"/>
+      <c r="A17" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="50"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -3741,7 +3741,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3789,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3805,14 +3805,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3824,39 +3824,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -3869,14 +3869,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -3889,7 +3889,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3937,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3953,14 +3953,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3972,39 +3972,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -4017,14 +4017,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -4037,14 +4037,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="48"/>
+      <c r="A19" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -4057,7 +4057,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4106,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4122,14 +4122,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4141,39 +4141,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="48"/>
+      <c r="A13" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -4186,7 +4186,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4249,14 +4249,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4268,45 +4268,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -4319,14 +4319,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="50"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -4339,14 +4339,14 @@
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="48"/>
+      <c r="A20" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="50"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -4359,7 +4359,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4424,14 +4424,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4443,26 +4443,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4508,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4524,14 +4524,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4543,51 +4543,51 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="50"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -4600,14 +4600,14 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="50"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -4620,14 +4620,14 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="48"/>
+      <c r="A21" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="50"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -4640,7 +4640,7 @@
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4689,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4705,14 +4705,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4724,45 +4724,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="48"/>
+      <c r="A14" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -4775,7 +4775,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4842,10 +4842,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -4857,26 +4857,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="42" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4922,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4930,14 +4930,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -4949,39 +4949,39 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -4994,14 +4994,14 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="50"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -5014,14 +5014,14 @@
     <row r="17" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="50"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -5034,7 +5034,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5099,14 +5099,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
@@ -5118,39 +5118,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -5163,14 +5163,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -5183,14 +5183,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -5203,7 +5203,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5252,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5268,14 +5268,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
@@ -5287,38 +5287,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="44" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5364,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5380,14 +5380,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
@@ -5399,63 +5399,63 @@
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="42" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="52"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -5468,14 +5468,14 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="50"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -5488,7 +5488,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5556,10 +5556,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5571,21 +5571,21 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="52"/>
+      <c r="A10" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5650,10 +5650,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5665,20 +5665,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5744,10 +5744,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5759,39 +5759,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="33" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -5804,14 +5804,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -5824,7 +5824,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5892,10 +5892,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -5907,20 +5907,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5986,10 +5986,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -6001,20 +6001,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6080,10 +6080,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -6095,20 +6095,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
+++ b/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="-15855" windowWidth="23490" windowHeight="13560" tabRatio="736" activeTab="3"/>
+    <workbookView xWindow="2865" yWindow="-15855" windowWidth="23490" windowHeight="13560" tabRatio="736" firstSheet="13" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="CSU01" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="212">
   <si>
     <t>Nome do Caso de Uso</t>
   </si>
@@ -184,15 +184,6 @@
     <t>Fluxo Alternativo I - Existem dados dependentes desse cadastro no sistema</t>
   </si>
   <si>
-    <t>CSU-26: Cadastrar Ingresso Disponível</t>
-  </si>
-  <si>
-    <t>CSU-27: Exibir Ingresso Disponível</t>
-  </si>
-  <si>
-    <t>CSU-28: Editar Ingresso Disponível</t>
-  </si>
-  <si>
     <t>Comprador</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>CSU-06: Efetuar Saque</t>
   </si>
   <si>
-    <t>CSU-29: Excluir Ingresso Disponível</t>
-  </si>
-  <si>
     <t>CSU-32: Excluir Comprador</t>
   </si>
   <si>
@@ -577,18 +565,12 @@
     <t>2 Seleciona o evento</t>
   </si>
   <si>
-    <t>3 Clica em "Cadastrar Tipo de Ingresso Disponível"</t>
-  </si>
-  <si>
     <t>4 Preenche os dados necessários</t>
   </si>
   <si>
     <t>3 Clica em "Ingressos Disponíveis"</t>
   </si>
   <si>
-    <t>4 Exibe os ingressos disponível para o evento</t>
-  </si>
-  <si>
     <t>4 Clica em "Incluir"</t>
   </si>
   <si>
@@ -683,6 +665,33 @@
   </si>
   <si>
     <t>Permite excluir uma categoria de eventos</t>
+  </si>
+  <si>
+    <t>CSU-26: Cadastrar Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>3 Clica em "Cadastrar Tipo de Ingresso"</t>
+  </si>
+  <si>
+    <t>CSU-27: Exibir Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>3 Clica em "Tipos de Ingressos"</t>
+  </si>
+  <si>
+    <t>4 Exibe os tipos de ingressos em um evento</t>
+  </si>
+  <si>
+    <t>CSU-28: Editar Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>3 Clica em "Tipo de Ingressos"</t>
+  </si>
+  <si>
+    <t>CSU-29: Excluir Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>3 Clica em "Tipos de Ingresso"</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1591,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1599,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1618,32 +1627,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1663,12 +1672,12 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B16" s="50"/>
     </row>
@@ -1683,7 +1692,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1739,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1747,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1766,32 +1775,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1811,7 +1820,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1831,7 +1840,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1851,7 +1860,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1908,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1916,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1935,20 +1944,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1994,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2002,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2010,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2029,32 +2038,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2074,7 +2083,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2094,7 +2103,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2114,7 +2123,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2171,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2179,7 +2188,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2198,13 +2207,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" s="28"/>
     </row>
@@ -2217,7 +2226,7 @@
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2271,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2279,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,32 +2307,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2343,7 +2352,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2363,7 +2372,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2383,7 +2392,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2440,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2448,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2467,38 +2476,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2518,7 +2527,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2538,7 +2547,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2558,7 +2567,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2615,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2623,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2642,38 +2651,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2693,7 +2702,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2748,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2756,7 +2765,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2775,32 +2784,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2820,7 +2829,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2840,7 +2849,7 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2860,7 +2869,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2917,7 +2926,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2925,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2944,38 +2953,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2995,7 +3004,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3015,7 +3024,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3035,7 +3044,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3092,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3100,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3119,38 +3128,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3170,7 +3179,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3217,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3225,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3233,7 +3242,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3252,14 +3261,14 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3305,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3313,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3332,32 +3341,32 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3377,7 +3386,7 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3397,7 +3406,7 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3417,7 +3426,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3474,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3482,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3501,32 +3510,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3546,7 +3555,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3566,7 +3575,7 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3586,7 +3595,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3643,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3651,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3670,43 +3679,43 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="44" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B14" s="52"/>
     </row>
@@ -3721,12 +3730,12 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B17" s="50"/>
     </row>
@@ -3741,7 +3750,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3789,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3797,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3805,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3824,32 +3833,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3869,7 +3878,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3889,7 +3898,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3937,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3945,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3953,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3972,32 +3981,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4017,7 +4026,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4037,12 +4046,12 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B19" s="50"/>
     </row>
@@ -4057,7 +4066,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4106,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4114,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4122,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4141,37 +4150,37 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B13" s="50"/>
     </row>
@@ -4186,7 +4195,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4204,7 +4213,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4233,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4241,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4249,7 +4258,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4268,38 +4277,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4319,7 +4328,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4339,12 +4348,12 @@
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B20" s="50"/>
     </row>
@@ -4359,7 +4368,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4388,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4392,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4408,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4416,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4424,7 +4433,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4443,26 +4452,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4488,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B23"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4492,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4508,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4516,7 +4525,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4524,7 +4533,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4543,44 +4552,44 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4600,7 +4609,7 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4620,12 +4629,12 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B21" s="50"/>
     </row>
@@ -4640,7 +4649,7 @@
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4659,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4673,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4689,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4697,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4705,7 +4714,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4724,43 +4733,43 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B14" s="50"/>
     </row>
@@ -4775,7 +4784,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4814,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4822,7 +4831,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4830,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4838,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4857,26 +4866,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4906,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4914,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4922,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4930,7 +4939,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4949,32 +4958,32 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4994,7 +5003,7 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5014,7 +5023,7 @@
     <row r="17" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5034,7 +5043,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5067,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5075,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5083,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5091,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5099,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5118,32 +5127,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5163,7 +5172,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5183,7 +5192,7 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5203,7 +5212,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5236,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5244,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5252,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5260,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5268,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5287,38 +5296,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="44" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5348,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5356,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5364,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5372,7 +5381,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5380,7 +5389,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5399,56 +5408,56 @@
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="42" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5468,7 +5477,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5488,7 +5497,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +5515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -5536,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5544,7 +5553,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5552,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5571,19 +5580,19 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B10" s="46"/>
     </row>
@@ -5630,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5638,7 +5647,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5646,7 +5655,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5665,20 +5674,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5708,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5724,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5732,7 +5741,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5740,7 +5749,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5759,37 +5768,37 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="50"/>
     </row>
@@ -5804,7 +5813,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5824,7 +5833,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5872,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5880,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5888,7 +5897,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5907,20 +5916,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5966,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5974,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5982,7 +5991,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6001,20 +6010,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6060,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -6068,7 +6077,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6076,7 +6085,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6095,20 +6104,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
+++ b/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
@@ -9,42 +9,38 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="-15855" windowWidth="23490" windowHeight="13560" tabRatio="736" firstSheet="13" activeTab="28"/>
+    <workbookView xWindow="2865" yWindow="-15855" windowWidth="23490" windowHeight="13560" tabRatio="736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CSU01" sheetId="2" r:id="rId1"/>
     <sheet name="CSU02" sheetId="23" r:id="rId2"/>
     <sheet name="CSU03" sheetId="24" r:id="rId3"/>
-    <sheet name="CSU04" sheetId="25" r:id="rId4"/>
-    <sheet name="CSU05" sheetId="26" r:id="rId5"/>
-    <sheet name="CSU06" sheetId="49" r:id="rId6"/>
-    <sheet name="CSU07" sheetId="27" r:id="rId7"/>
-    <sheet name="CSU08" sheetId="28" r:id="rId8"/>
-    <sheet name="CSU09" sheetId="29" r:id="rId9"/>
-    <sheet name="CSU10" sheetId="15" r:id="rId10"/>
-    <sheet name="CSU11" sheetId="16" r:id="rId11"/>
-    <sheet name="CSU12" sheetId="17" r:id="rId12"/>
-    <sheet name="CSU13" sheetId="18" r:id="rId13"/>
-    <sheet name="CSU14" sheetId="19" r:id="rId14"/>
-    <sheet name="CSU15" sheetId="30" r:id="rId15"/>
-    <sheet name="CSU16" sheetId="31" r:id="rId16"/>
-    <sheet name="CSU17" sheetId="32" r:id="rId17"/>
-    <sheet name="CSU18" sheetId="33" r:id="rId18"/>
-    <sheet name="CSU19" sheetId="34" r:id="rId19"/>
-    <sheet name="CSU20" sheetId="35" r:id="rId20"/>
-    <sheet name="CSU21" sheetId="36" r:id="rId21"/>
-    <sheet name="CSU22" sheetId="37" r:id="rId22"/>
-    <sheet name="CSU23" sheetId="38" r:id="rId23"/>
-    <sheet name="CSU24" sheetId="39" r:id="rId24"/>
-    <sheet name="CSU25" sheetId="40" r:id="rId25"/>
-    <sheet name="CSU26" sheetId="41" r:id="rId26"/>
-    <sheet name="CSU27" sheetId="42" r:id="rId27"/>
-    <sheet name="CSU28" sheetId="43" r:id="rId28"/>
-    <sheet name="CSU29" sheetId="44" r:id="rId29"/>
-    <sheet name="CSU30" sheetId="45" r:id="rId30"/>
-    <sheet name="CSU31" sheetId="48" r:id="rId31"/>
-    <sheet name="CSU32" sheetId="46" r:id="rId32"/>
-    <sheet name="CSU33" sheetId="47" r:id="rId33"/>
+    <sheet name="CSU05" sheetId="26" r:id="rId4"/>
+    <sheet name="CSU06" sheetId="49" r:id="rId5"/>
+    <sheet name="CSU07" sheetId="27" r:id="rId6"/>
+    <sheet name="CSU08" sheetId="28" r:id="rId7"/>
+    <sheet name="CSU09" sheetId="29" r:id="rId8"/>
+    <sheet name="CSU10" sheetId="15" r:id="rId9"/>
+    <sheet name="CSU11" sheetId="16" r:id="rId10"/>
+    <sheet name="CSU12" sheetId="17" r:id="rId11"/>
+    <sheet name="CSU13" sheetId="18" r:id="rId12"/>
+    <sheet name="CSU17" sheetId="32" r:id="rId13"/>
+    <sheet name="CSU18" sheetId="33" r:id="rId14"/>
+    <sheet name="CSU19" sheetId="34" r:id="rId15"/>
+    <sheet name="CSU20" sheetId="35" r:id="rId16"/>
+    <sheet name="CSU21" sheetId="36" r:id="rId17"/>
+    <sheet name="CSU22" sheetId="37" r:id="rId18"/>
+    <sheet name="CSU23" sheetId="38" r:id="rId19"/>
+    <sheet name="CSU24" sheetId="39" r:id="rId20"/>
+    <sheet name="CSU25" sheetId="40" r:id="rId21"/>
+    <sheet name="CSU26" sheetId="41" r:id="rId22"/>
+    <sheet name="CSU27" sheetId="42" r:id="rId23"/>
+    <sheet name="CSU28" sheetId="43" r:id="rId24"/>
+    <sheet name="CSU29" sheetId="44" r:id="rId25"/>
+    <sheet name="CSU30" sheetId="45" r:id="rId26"/>
+    <sheet name="CSU31" sheetId="48" r:id="rId27"/>
+    <sheet name="CSU32" sheetId="46" r:id="rId28"/>
+    <sheet name="CSU33" sheetId="47" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="197">
   <si>
     <t>Nome do Caso de Uso</t>
   </si>
@@ -121,12 +117,6 @@
     <t>CSU-13: Excluir Administrador</t>
   </si>
   <si>
-    <t>CSU-14: Cadastrar Categoria de Ingresso</t>
-  </si>
-  <si>
-    <t>CSU-04: Exibir Categoria de Ingresso</t>
-  </si>
-  <si>
     <t>Administrador/Organizadora</t>
   </si>
   <si>
@@ -145,12 +135,6 @@
     <t>CSU-09: Exibir Pedido</t>
   </si>
   <si>
-    <t>CSU-15: Editar Categoria de Ingresso</t>
-  </si>
-  <si>
-    <t>CSU-16: Excluir Categoria de Ingresso</t>
-  </si>
-  <si>
     <t>CSU-17: Cadastrar Categoria de Evento</t>
   </si>
   <si>
@@ -247,12 +231,6 @@
     <t>Serão exibidos os dados dos eventos</t>
   </si>
   <si>
-    <t>Permite exibir categorias de ingresso</t>
-  </si>
-  <si>
-    <t>Serão exibidos os dados das categorias de ingresso</t>
-  </si>
-  <si>
     <t>Permite exibir dados da organizadora</t>
   </si>
   <si>
@@ -310,15 +288,6 @@
     <t>4 Exclui o administrador selecionado</t>
   </si>
   <si>
-    <t>Uma nova categoria de ingressos será criada</t>
-  </si>
-  <si>
-    <t>Uma categoria de ingressos será alterada</t>
-  </si>
-  <si>
-    <t>Uma categoria de ingressos será excluída</t>
-  </si>
-  <si>
     <t>Uma categoria de eventos será alterada</t>
   </si>
   <si>
@@ -496,12 +465,6 @@
     <t>5 Salva as alterações</t>
   </si>
   <si>
-    <t>2 Seleciona a opção "Nova Categoria de Ingresso"</t>
-  </si>
-  <si>
-    <t>2 Seleciona a opção "Categorias de Ingresso"</t>
-  </si>
-  <si>
     <t>3 Clica em "Editar"</t>
   </si>
   <si>
@@ -568,9 +531,6 @@
     <t>4 Preenche os dados necessários</t>
   </si>
   <si>
-    <t>3 Clica em "Ingressos Disponíveis"</t>
-  </si>
-  <si>
     <t>4 Clica em "Incluir"</t>
   </si>
   <si>
@@ -647,15 +607,6 @@
   </si>
   <si>
     <t>1 Clica em "Cadastre-se"</t>
-  </si>
-  <si>
-    <t>Permite cadastrar uma categoria de ingressos</t>
-  </si>
-  <si>
-    <t>Permite editar uma categoria de ingressos</t>
-  </si>
-  <si>
-    <t>Permite excluir uma categoria de ingressos</t>
   </si>
   <si>
     <t>Permite cadastrar uma categoria de evento</t>
@@ -1117,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1221,9 +1172,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1250,12 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1592,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1600,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1608,14 +1550,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1627,39 +1569,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1672,14 +1614,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="50"/>
+      <c r="A16" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="47"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1692,7 +1634,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1707,175 +1649,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="50"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="50"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1909,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1917,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1925,14 +1698,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1944,20 +1717,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="37"/>
+      <c r="A9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2003,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2011,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2019,58 +1792,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="49"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2083,14 +1856,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2103,14 +1876,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2123,7 +1896,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +1911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2172,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2180,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2188,14 +1961,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -2207,13 +1980,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B9" s="28"/>
     </row>
@@ -2226,7 +1999,7 @@
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2238,484 +2011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="50"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="50"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="50"/>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="50"/>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="50"/>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="50"/>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A14:B14"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2733,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2749,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2757,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2765,14 +2061,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2784,39 +2080,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2829,14 +2125,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2849,14 +2145,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2869,7 +2165,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -2902,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2918,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2926,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2934,14 +2230,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2953,45 +2249,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -3004,14 +2300,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -3024,14 +2320,14 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -3044,7 +2340,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +2355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -3077,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3093,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3101,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3109,14 +2405,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3128,45 +2424,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="50"/>
+      <c r="A14" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="47"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -3179,13 +2475,645 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="45"/>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47"/>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="47"/>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="47"/>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="28"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="47"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="47"/>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="28"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="47"/>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="47"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3218,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3226,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3234,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3242,14 +3170,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3261,14 +3189,14 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3281,6 +3209,891 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="47"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="47"/>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="47"/>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="47"/>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="47"/>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="37"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="47"/>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="47"/>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="47"/>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="47"/>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -3298,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3306,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3314,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3322,131 +4135,131 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3467,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3475,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3483,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3491,58 +4304,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="49"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -3555,14 +4368,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -3575,14 +4388,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -3595,7 +4408,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3610,12 +4423,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3636,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3644,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3652,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3660,116 +4473,74 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B11" s="28"/>
     </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44" t="s">
-        <v>193</v>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="52"/>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="50"/>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3790,15 +4561,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3806,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3814,983 +4585,122 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="13"/>
+      <c r="A10" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A11" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="28"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="50"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>121</v>
+      <c r="B20" s="47"/>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="50"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="50"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="50"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="50"/>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="50"/>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="50"/>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="38"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="50"/>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="50"/>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="50"/>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="50"/>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4823,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4831,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4839,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4847,14 +4757,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -4866,645 +4776,31 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="42" t="s">
-        <v>124</v>
+      <c r="B9" s="41" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="48"/>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="50"/>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="50"/>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="50"/>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="52"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="50"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="52"/>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="50"/>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5515,101 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5623,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5631,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5639,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5647,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5655,14 +4857,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5674,20 +4876,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="37"/>
+      <c r="A9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5699,7 +4901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -5717,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5725,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5733,7 +4935,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5741,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5749,14 +4951,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5768,39 +4970,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="41"/>
+        <v>120</v>
+      </c>
+      <c r="B9" s="40"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="50"/>
+      <c r="A13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="47"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -5813,14 +5015,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -5833,7 +5035,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5841,6 +5043,100 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5865,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5873,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5881,7 +5177,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5889,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5897,39 +5193,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="27"/>
+      <c r="A8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="28"/>
+      <c r="A9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="29" t="s">
-        <v>133</v>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5942,100 +5238,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="37"/>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -6053,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -6061,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -6069,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -6077,7 +5279,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6085,14 +5287,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -6104,20 +5306,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6127,4 +5329,173 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="47"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="47"/>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
+++ b/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
@@ -15,32 +15,33 @@
     <sheet name="CSU01" sheetId="2" r:id="rId1"/>
     <sheet name="CSU02" sheetId="23" r:id="rId2"/>
     <sheet name="CSU03" sheetId="24" r:id="rId3"/>
-    <sheet name="CSU05" sheetId="26" r:id="rId4"/>
-    <sheet name="CSU06" sheetId="49" r:id="rId5"/>
-    <sheet name="CSU07" sheetId="27" r:id="rId6"/>
-    <sheet name="CSU08" sheetId="28" r:id="rId7"/>
-    <sheet name="CSU09" sheetId="29" r:id="rId8"/>
-    <sheet name="CSU10" sheetId="15" r:id="rId9"/>
-    <sheet name="CSU11" sheetId="16" r:id="rId10"/>
-    <sheet name="CSU12" sheetId="17" r:id="rId11"/>
-    <sheet name="CSU13" sheetId="18" r:id="rId12"/>
-    <sheet name="CSU17" sheetId="32" r:id="rId13"/>
-    <sheet name="CSU18" sheetId="33" r:id="rId14"/>
-    <sheet name="CSU19" sheetId="34" r:id="rId15"/>
-    <sheet name="CSU20" sheetId="35" r:id="rId16"/>
-    <sheet name="CSU21" sheetId="36" r:id="rId17"/>
-    <sheet name="CSU22" sheetId="37" r:id="rId18"/>
-    <sheet name="CSU23" sheetId="38" r:id="rId19"/>
-    <sheet name="CSU24" sheetId="39" r:id="rId20"/>
-    <sheet name="CSU25" sheetId="40" r:id="rId21"/>
-    <sheet name="CSU26" sheetId="41" r:id="rId22"/>
-    <sheet name="CSU27" sheetId="42" r:id="rId23"/>
-    <sheet name="CSU28" sheetId="43" r:id="rId24"/>
-    <sheet name="CSU29" sheetId="44" r:id="rId25"/>
-    <sheet name="CSU30" sheetId="45" r:id="rId26"/>
-    <sheet name="CSU31" sheetId="48" r:id="rId27"/>
-    <sheet name="CSU32" sheetId="46" r:id="rId28"/>
-    <sheet name="CSU33" sheetId="47" r:id="rId29"/>
+    <sheet name="CSU04" sheetId="50" r:id="rId4"/>
+    <sheet name="CSU05" sheetId="26" r:id="rId5"/>
+    <sheet name="CSU06" sheetId="49" r:id="rId6"/>
+    <sheet name="CSU07" sheetId="27" r:id="rId7"/>
+    <sheet name="CSU08" sheetId="28" r:id="rId8"/>
+    <sheet name="CSU09" sheetId="29" r:id="rId9"/>
+    <sheet name="CSU10" sheetId="15" r:id="rId10"/>
+    <sheet name="CSU11" sheetId="16" r:id="rId11"/>
+    <sheet name="CSU12" sheetId="17" r:id="rId12"/>
+    <sheet name="CSU13" sheetId="18" r:id="rId13"/>
+    <sheet name="CSU17" sheetId="32" r:id="rId14"/>
+    <sheet name="CSU18" sheetId="33" r:id="rId15"/>
+    <sheet name="CSU19" sheetId="34" r:id="rId16"/>
+    <sheet name="CSU20" sheetId="35" r:id="rId17"/>
+    <sheet name="CSU21" sheetId="36" r:id="rId18"/>
+    <sheet name="CSU22" sheetId="37" r:id="rId19"/>
+    <sheet name="CSU23" sheetId="38" r:id="rId20"/>
+    <sheet name="CSU24" sheetId="39" r:id="rId21"/>
+    <sheet name="CSU25" sheetId="40" r:id="rId22"/>
+    <sheet name="CSU26" sheetId="41" r:id="rId23"/>
+    <sheet name="CSU27" sheetId="42" r:id="rId24"/>
+    <sheet name="CSU28" sheetId="43" r:id="rId25"/>
+    <sheet name="CSU29" sheetId="44" r:id="rId26"/>
+    <sheet name="CSU30" sheetId="45" r:id="rId27"/>
+    <sheet name="CSU31" sheetId="48" r:id="rId28"/>
+    <sheet name="CSU32" sheetId="46" r:id="rId29"/>
+    <sheet name="CSU33" sheetId="47" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="201">
   <si>
     <t>Nome do Caso de Uso</t>
   </si>
@@ -93,9 +94,6 @@
     <t>3 Confirma exclusão</t>
   </si>
   <si>
-    <t>Fluxo Alternativo IV - Dados já pertencem a um cadastro existente</t>
-  </si>
-  <si>
     <t>Administrador/Comprador/Organizadora</t>
   </si>
   <si>
@@ -643,6 +641,21 @@
   </si>
   <si>
     <t>3 Clica em "Tipos de Ingresso"</t>
+  </si>
+  <si>
+    <t>Permite editar os dados da administrativa</t>
+  </si>
+  <si>
+    <t>A conta administrativa será alterada</t>
+  </si>
+  <si>
+    <t>2 Clica em "Conta Administrativa"</t>
+  </si>
+  <si>
+    <t>Fluxo Alternativo III - Dados já pertencem a um cadastro existente</t>
+  </si>
+  <si>
+    <t>CSU-04: Editar Conta ADM</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1198,6 +1211,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1526,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1534,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1542,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1550,14 +1566,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1569,39 +1585,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1614,14 +1630,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="47"/>
+      <c r="A16" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1634,7 +1650,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1649,6 +1665,175 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="48"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="48"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="48"/>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1666,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1682,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1690,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1698,14 +1883,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1717,20 +1902,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1742,12 +1927,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1776,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1784,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1792,14 +1977,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -1811,39 +1996,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1856,14 +2041,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1876,14 +2061,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="47"/>
+      <c r="A19" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -1896,7 +2081,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1929,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1945,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1953,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1961,14 +2146,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -1980,13 +2165,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="28"/>
     </row>
@@ -1999,7 +2184,7 @@
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2011,12 +2196,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2045,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2053,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2061,14 +2246,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2080,39 +2265,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2125,14 +2310,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2145,14 +2330,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="47"/>
+      <c r="A19" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2165,7 +2350,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2180,12 +2365,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2214,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2222,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2230,14 +2415,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2249,45 +2434,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2300,14 +2485,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -2320,14 +2505,14 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="47"/>
+      <c r="A20" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -2340,7 +2525,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -2373,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2389,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2397,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2405,14 +2590,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2424,45 +2609,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="47"/>
+      <c r="A14" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2475,7 +2660,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2488,12 +2673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2514,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2522,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2530,14 +2715,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2549,39 +2734,39 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -2594,14 +2779,14 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -2614,14 +2799,14 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="47"/>
+      <c r="A18" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="48"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -2634,7 +2819,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2649,12 +2834,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2675,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2683,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2691,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2699,14 +2884,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -2718,39 +2903,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -2763,14 +2948,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -2783,14 +2968,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="47"/>
+      <c r="A19" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2803,7 +2988,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +3003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2836,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2844,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2852,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2860,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2868,14 +3053,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -2887,45 +3072,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="49"/>
+      <c r="A14" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2938,14 +3123,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="47"/>
+      <c r="A17" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -2958,7 +3143,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2966,154 +3151,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A17:B17"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="47"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="47"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3138,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3146,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3154,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3162,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3170,14 +3207,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3189,14 +3226,14 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3209,6 +3246,154 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="48"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="48"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -3226,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3234,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3242,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3250,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3258,14 +3443,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3277,39 +3462,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -3322,14 +3507,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -3342,14 +3527,14 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="47"/>
+      <c r="A19" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -3362,7 +3547,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -3395,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3403,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3411,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3419,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3427,14 +3612,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3446,39 +3631,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="47"/>
+      <c r="A13" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -3491,7 +3676,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3504,7 +3689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -3522,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3530,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3538,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3546,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3554,14 +3739,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3573,45 +3758,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -3624,14 +3809,14 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -3644,14 +3829,14 @@
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="47"/>
+      <c r="A20" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -3664,7 +3849,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3679,7 +3864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -3697,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3705,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3713,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3721,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3729,14 +3914,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3748,26 +3933,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -3797,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3805,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3813,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3821,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3829,14 +4014,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3848,51 +4033,51 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -3905,14 +4090,14 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="48"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -3925,14 +4110,14 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="47"/>
+      <c r="A21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="48"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -3945,7 +4130,7 @@
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3960,7 +4145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -3978,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3986,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4002,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4010,14 +4195,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4029,45 +4214,45 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -4080,7 +4265,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4093,12 +4278,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4111,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4119,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4127,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4135,14 +4320,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -4154,39 +4339,39 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -4199,14 +4384,14 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -4219,14 +4404,14 @@
     <row r="17" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="47"/>
+      <c r="A18" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="48"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -4239,7 +4424,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4254,12 +4439,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4280,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4288,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4296,7 +4481,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4304,14 +4489,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -4323,39 +4508,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -4368,14 +4553,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -4388,14 +4573,14 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="47"/>
+      <c r="A19" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -4408,7 +4593,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4423,7 +4608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -4441,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4449,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4457,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4465,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4473,14 +4658,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -4492,215 +4677,43 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="49"/>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="47"/>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4725,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4733,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4741,7 +4754,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4749,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4757,14 +4770,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -4776,26 +4789,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4807,11 +4820,331 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="28"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="50"/>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="48"/>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="48"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="48"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4825,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4833,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4841,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4849,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4857,14 +5190,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4876,20 +5209,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4901,7 +5234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -4919,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4927,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -4935,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4943,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4951,14 +5284,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4970,39 +5303,39 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="40"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="47"/>
+      <c r="A13" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -5015,14 +5348,14 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -5035,7 +5368,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5043,100 +5376,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5161,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5169,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5177,7 +5416,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5185,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5193,39 +5432,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="36"/>
+      <c r="A9" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
-        <v>134</v>
+      <c r="A10" s="25"/>
+      <c r="B10" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5238,6 +5477,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5255,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5263,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5271,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5279,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5287,14 +5620,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -5306,20 +5639,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5329,173 +5662,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="42.42578125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="47"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="47"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="47"/>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
+++ b/files/Casos de Uso/Descrição dos Casos de Uso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="-15855" windowWidth="23490" windowHeight="13560" tabRatio="736" activeTab="3"/>
+    <workbookView xWindow="2865" yWindow="-15855" windowWidth="23490" windowHeight="13560" tabRatio="736" firstSheet="10" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="CSU01" sheetId="2" r:id="rId1"/>
@@ -25,23 +25,23 @@
     <sheet name="CSU11" sheetId="16" r:id="rId11"/>
     <sheet name="CSU12" sheetId="17" r:id="rId12"/>
     <sheet name="CSU13" sheetId="18" r:id="rId13"/>
-    <sheet name="CSU17" sheetId="32" r:id="rId14"/>
-    <sheet name="CSU18" sheetId="33" r:id="rId15"/>
-    <sheet name="CSU19" sheetId="34" r:id="rId16"/>
-    <sheet name="CSU20" sheetId="35" r:id="rId17"/>
-    <sheet name="CSU21" sheetId="36" r:id="rId18"/>
-    <sheet name="CSU22" sheetId="37" r:id="rId19"/>
-    <sheet name="CSU23" sheetId="38" r:id="rId20"/>
-    <sheet name="CSU24" sheetId="39" r:id="rId21"/>
-    <sheet name="CSU25" sheetId="40" r:id="rId22"/>
-    <sheet name="CSU26" sheetId="41" r:id="rId23"/>
-    <sheet name="CSU27" sheetId="42" r:id="rId24"/>
-    <sheet name="CSU28" sheetId="43" r:id="rId25"/>
-    <sheet name="CSU29" sheetId="44" r:id="rId26"/>
-    <sheet name="CSU30" sheetId="45" r:id="rId27"/>
-    <sheet name="CSU31" sheetId="48" r:id="rId28"/>
-    <sheet name="CSU32" sheetId="46" r:id="rId29"/>
-    <sheet name="CSU33" sheetId="47" r:id="rId30"/>
+    <sheet name="CSU14" sheetId="32" r:id="rId14"/>
+    <sheet name="CSU15" sheetId="33" r:id="rId15"/>
+    <sheet name="CSU16" sheetId="34" r:id="rId16"/>
+    <sheet name="CSU17" sheetId="35" r:id="rId17"/>
+    <sheet name="CSU18" sheetId="36" r:id="rId18"/>
+    <sheet name="CSU19" sheetId="37" r:id="rId19"/>
+    <sheet name="CSU20" sheetId="38" r:id="rId20"/>
+    <sheet name="CSU21" sheetId="39" r:id="rId21"/>
+    <sheet name="CSU22" sheetId="40" r:id="rId22"/>
+    <sheet name="CSU23" sheetId="41" r:id="rId23"/>
+    <sheet name="CSU24" sheetId="42" r:id="rId24"/>
+    <sheet name="CSU25" sheetId="43" r:id="rId25"/>
+    <sheet name="CSU26" sheetId="44" r:id="rId26"/>
+    <sheet name="CSU27" sheetId="45" r:id="rId27"/>
+    <sheet name="CSU28" sheetId="48" r:id="rId28"/>
+    <sheet name="CSU29" sheetId="46" r:id="rId29"/>
+    <sheet name="CSU30" sheetId="47" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -133,60 +133,21 @@
     <t>CSU-09: Exibir Pedido</t>
   </si>
   <si>
-    <t>CSU-17: Cadastrar Categoria de Evento</t>
-  </si>
-  <si>
-    <t>CSU-18: Editar Categoria de Evento</t>
-  </si>
-  <si>
-    <t>CSU-19: Excluir Categoria de Evento</t>
-  </si>
-  <si>
-    <t>CSU-20: Cadastrar Organizadora</t>
-  </si>
-  <si>
     <t>Organizadora</t>
   </si>
   <si>
-    <t>CSU-21: Editar Organizadora</t>
-  </si>
-  <si>
-    <t>CSU-22: Excluir Organizadora</t>
-  </si>
-  <si>
-    <t>CSU-23: Cadastrar Evento</t>
-  </si>
-  <si>
-    <t>CSU-24: Editar Evento</t>
-  </si>
-  <si>
-    <t>CSU-25: Excluir Evento</t>
-  </si>
-  <si>
     <t>Fluxo Alternativo I - Existem dados dependentes desse cadastro no sistema</t>
   </si>
   <si>
     <t>Comprador</t>
   </si>
   <si>
-    <t>CSU-30: Cadastrar Comprador</t>
-  </si>
-  <si>
-    <t>CSU-31: Editar Comprador</t>
-  </si>
-  <si>
-    <t>CSU-33: Efetuar Pedido</t>
-  </si>
-  <si>
     <t>Fluxo Alternativo I - Valor é superior ao da carteira</t>
   </si>
   <si>
     <t>CSU-06: Efetuar Saque</t>
   </si>
   <si>
-    <t>CSU-32: Excluir Comprador</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -616,30 +577,18 @@
     <t>Permite excluir uma categoria de eventos</t>
   </si>
   <si>
-    <t>CSU-26: Cadastrar Tipo de Ingresso</t>
-  </si>
-  <si>
     <t>3 Clica em "Cadastrar Tipo de Ingresso"</t>
   </si>
   <si>
-    <t>CSU-27: Exibir Tipo de Ingresso</t>
-  </si>
-  <si>
     <t>3 Clica em "Tipos de Ingressos"</t>
   </si>
   <si>
     <t>4 Exibe os tipos de ingressos em um evento</t>
   </si>
   <si>
-    <t>CSU-28: Editar Tipo de Ingresso</t>
-  </si>
-  <si>
     <t>3 Clica em "Tipo de Ingressos"</t>
   </si>
   <si>
-    <t>CSU-29: Excluir Tipo de Ingresso</t>
-  </si>
-  <si>
     <t>3 Clica em "Tipos de Ingresso"</t>
   </si>
   <si>
@@ -656,6 +605,57 @@
   </si>
   <si>
     <t>CSU-04: Editar Conta ADM</t>
+  </si>
+  <si>
+    <t>CSU-14: Cadastrar Categoria de Evento</t>
+  </si>
+  <si>
+    <t>CSU-15: Editar Categoria de Evento</t>
+  </si>
+  <si>
+    <t>CSU-16: Excluir Categoria de Evento</t>
+  </si>
+  <si>
+    <t>CSU-17: Cadastrar Organizadora</t>
+  </si>
+  <si>
+    <t>CSU-18: Editar Organizadora</t>
+  </si>
+  <si>
+    <t>CSU-19: Excluir Organizadora</t>
+  </si>
+  <si>
+    <t>CSU-20: Cadastrar Evento</t>
+  </si>
+  <si>
+    <t>CSU-21: Editar Evento</t>
+  </si>
+  <si>
+    <t>CSU-22: Excluir Evento</t>
+  </si>
+  <si>
+    <t>CSU-23: Cadastrar Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>CSU-24: Exibir Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>CSU-25: Editar Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>CSU-26: Excluir Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>CSU-27: Cadastrar Comprador</t>
+  </si>
+  <si>
+    <t>CSU-28: Editar Comprador</t>
+  </si>
+  <si>
+    <t>CSU-29: Excluir Comprador</t>
+  </si>
+  <si>
+    <t>CSU-30: Efetuar Pedido</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1585,32 +1585,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1630,12 +1630,12 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B16" s="48"/>
     </row>
@@ -1650,7 +1650,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1733,32 +1733,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1778,7 +1778,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1798,12 +1798,12 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B19" s="48"/>
     </row>
@@ -1818,7 +1818,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1883,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,20 +1902,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1977,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1996,32 +1996,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2041,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2061,12 +2061,12 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B19" s="48"/>
     </row>
@@ -2081,7 +2081,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2165,13 +2165,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B9" s="28"/>
     </row>
@@ -2184,7 +2184,7 @@
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2201,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2246,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2265,32 +2265,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2310,7 +2310,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2330,12 +2330,12 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B19" s="48"/>
     </row>
@@ -2350,7 +2350,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2370,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2415,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2434,38 +2434,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2485,7 +2485,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2505,12 +2505,12 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B20" s="48"/>
     </row>
@@ -2525,7 +2525,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2545,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2574,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2590,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2609,43 +2609,43 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B14" s="48"/>
     </row>
@@ -2660,7 +2660,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2678,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2715,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2734,32 +2734,32 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2779,7 +2779,7 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2799,12 +2799,12 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B18" s="48"/>
     </row>
@@ -2819,7 +2819,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2839,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2903,32 +2903,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2948,7 +2948,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2968,12 +2968,12 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B19" s="48"/>
     </row>
@@ -2988,7 +2988,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +3008,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3053,7 +3053,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,43 +3072,43 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B14" s="50"/>
     </row>
@@ -3123,12 +3123,12 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B17" s="48"/>
     </row>
@@ -3143,7 +3143,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3207,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3226,14 +3226,14 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3250,7 +3250,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3295,7 +3295,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3314,32 +3314,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3359,7 +3359,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3379,7 +3379,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +3398,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3443,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3462,32 +3462,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3507,7 +3507,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3527,12 +3527,12 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B19" s="48"/>
     </row>
@@ -3547,7 +3547,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3567,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3612,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3631,37 +3631,37 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B13" s="48"/>
     </row>
@@ -3676,7 +3676,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3694,7 +3694,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3731,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3739,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3758,38 +3758,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3809,7 +3809,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3829,12 +3829,12 @@
     <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B20" s="48"/>
     </row>
@@ -3849,7 +3849,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3869,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3898,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3914,7 +3914,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3933,26 +3933,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +3969,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3998,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4033,44 +4033,44 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4090,7 +4090,7 @@
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4110,12 +4110,12 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B21" s="48"/>
     </row>
@@ -4130,7 +4130,7 @@
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4150,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4187,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4195,7 +4195,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4214,43 +4214,43 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B14" s="48"/>
     </row>
@@ -4265,7 +4265,7 @@
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4283,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4320,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4339,32 +4339,32 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4384,7 +4384,7 @@
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4404,12 +4404,12 @@
     <row r="17" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B18" s="48"/>
     </row>
@@ -4424,7 +4424,7 @@
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4444,7 +4444,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4481,7 +4481,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4489,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4508,32 +4508,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4553,7 +4553,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4573,12 +4573,12 @@
     <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B19" s="48"/>
     </row>
@@ -4593,7 +4593,7 @@
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4613,7 +4613,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4642,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4650,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4658,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4677,38 +4677,38 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4754,7 +4754,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4762,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4770,7 +4770,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4789,26 +4789,26 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="41" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4824,8 +4824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -4854,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4862,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4870,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4889,56 +4889,56 @@
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="41" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="41" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="29" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4958,7 +4958,7 @@
     <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4978,7 +4978,7 @@
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4996,7 +4996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5034,7 +5034,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5042,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5061,32 +5061,32 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5106,7 +5106,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5126,7 +5126,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5190,7 +5190,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5209,20 +5209,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5268,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5284,7 +5284,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5303,37 +5303,37 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B9" s="40"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="33" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B13" s="48"/>
     </row>
@@ -5348,7 +5348,7 @@
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5368,7 +5368,7 @@
     <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5416,7 +5416,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5424,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5451,20 +5451,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5510,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5518,7 +5518,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5526,7 +5526,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5545,20 +5545,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5620,7 +5620,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5639,20 +5639,20 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="29" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
